--- a/raw_data/20200818_saline/20200818_Sensor1_Test_71.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_71.xlsx
@@ -1,1022 +1,1438 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FB7F1A-313E-4E7C-9233-8DBED3CF474B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>63188.636941</v>
+        <v>63188.636940999997</v>
       </c>
       <c r="B2" s="1">
-        <v>17.552399</v>
+        <v>17.552399000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>897.863000</v>
+        <v>897.86300000000006</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.748000</v>
+        <v>-202.74799999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>63198.830752</v>
+        <v>63198.830752000002</v>
       </c>
       <c r="G2" s="1">
-        <v>17.555231</v>
+        <v>17.555230999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>916.517000</v>
+        <v>916.51700000000005</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.706000</v>
+        <v>-171.70599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>63209.002209</v>
+        <v>63209.002208999998</v>
       </c>
       <c r="L2" s="1">
-        <v>17.558056</v>
+        <v>17.558056000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>940.455000</v>
+        <v>940.45500000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.943000</v>
+        <v>-121.943</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>63219.142389</v>
+        <v>63219.142389000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.560873</v>
+        <v>17.560873000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>947.434000</v>
+        <v>947.43399999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.350000</v>
+        <v>-105.35</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>63229.397177</v>
+        <v>63229.397176999999</v>
       </c>
       <c r="V2" s="1">
-        <v>17.563721</v>
+        <v>17.563721000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>954.193000</v>
+        <v>954.19299999999998</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.954700</v>
+        <v>-89.954700000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>63239.860810</v>
+        <v>63239.860809999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>17.566628</v>
+        <v>17.566628000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.609000</v>
+        <v>961.60900000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.860500</v>
+        <v>-77.860500000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>63250.449373</v>
+        <v>63250.449373000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.569569</v>
+        <v>17.569569000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.472000</v>
+        <v>966.47199999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.299500</v>
+        <v>-75.299499999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>63260.898126</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.572472</v>
+        <v>17.572472000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.626000</v>
+        <v>973.62599999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.711500</v>
+        <v>-79.711500000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>63271.499585</v>
+        <v>63271.499584999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.575417</v>
+        <v>17.575417000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>981.697000</v>
+        <v>981.697</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.035800</v>
+        <v>-91.035799999999995</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>63282.554449</v>
+        <v>63282.554449000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>17.578487</v>
+        <v>17.578486999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>991.573000</v>
+        <v>991.57299999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.478000</v>
+        <v>-108.47799999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>63293.637555</v>
+        <v>63293.637555000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>17.581566</v>
+        <v>17.581565999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.841000</v>
+        <v>999.84100000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.964000</v>
+        <v>-123.964</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>63304.645766</v>
+        <v>63304.645766000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>17.584624</v>
+        <v>17.584624000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.111000</v>
+        <v>-195.11099999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>63316.388596</v>
+        <v>63316.388595999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.587886</v>
+        <v>17.587886000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.094000</v>
+        <v>-310.09399999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>63327.747397</v>
+        <v>63327.747396999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>17.591041</v>
+        <v>17.591041000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1213.690000</v>
+        <v>1213.69</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-490.421000</v>
+        <v>-490.42099999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>63338.484295</v>
+        <v>63338.484295000002</v>
       </c>
       <c r="BT2" s="1">
         <v>17.594023</v>
       </c>
       <c r="BU2" s="1">
-        <v>1335.300000</v>
+        <v>1335.3</v>
       </c>
       <c r="BV2" s="1">
-        <v>-687.424000</v>
+        <v>-687.42399999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>63349.118523</v>
+        <v>63349.118522999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>17.596977</v>
+        <v>17.596976999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1470.040000</v>
+        <v>1470.04</v>
       </c>
       <c r="CA2" s="1">
-        <v>-896.598000</v>
+        <v>-896.59799999999996</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>63360.055307</v>
+        <v>63360.055307000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.600015</v>
+        <v>17.600014999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1822.190000</v>
+        <v>1822.19</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1391.660000</v>
+        <v>-1391.66</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>63189.044157</v>
+        <v>63189.044156999997</v>
       </c>
       <c r="B3" s="1">
         <v>17.552512</v>
       </c>
       <c r="C3" s="1">
-        <v>897.738000</v>
+        <v>897.73800000000006</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.581000</v>
+        <v>-202.58099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>63199.178912</v>
+        <v>63199.178912000003</v>
       </c>
       <c r="G3" s="1">
-        <v>17.555327</v>
+        <v>17.555326999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>916.514000</v>
+        <v>916.51400000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.372000</v>
+        <v>-171.37200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>63209.361777</v>
+        <v>63209.361776999998</v>
       </c>
       <c r="L3" s="1">
         <v>17.558156</v>
       </c>
       <c r="M3" s="1">
-        <v>940.301000</v>
+        <v>940.30100000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.861000</v>
+        <v>-121.861</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>63219.526788</v>
+        <v>63219.526788000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.560980</v>
+        <v>17.560980000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>947.443000</v>
+        <v>947.44299999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.347000</v>
+        <v>-105.34699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>63229.779636</v>
+        <v>63229.779635999999</v>
       </c>
       <c r="V3" s="1">
-        <v>17.563828</v>
+        <v>17.563828000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>954.429000</v>
+        <v>954.42899999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.932400</v>
+        <v>-89.932400000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>63240.276922</v>
+        <v>63240.276921999997</v>
       </c>
       <c r="AA3" s="1">
         <v>17.566744</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.666000</v>
+        <v>961.66600000000005</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.806200</v>
+        <v>-77.806200000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>63250.851627</v>
+        <v>63250.851626999996</v>
       </c>
       <c r="AF3" s="1">
-        <v>17.569681</v>
+        <v>17.569680999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.434000</v>
+        <v>966.43399999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.192900</v>
+        <v>-75.192899999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>63261.313741</v>
+        <v>63261.313740999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.572587</v>
+        <v>17.572586999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.591000</v>
+        <v>973.59100000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.688600</v>
+        <v>-79.688599999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>63271.882991</v>
+        <v>63271.882990999999</v>
       </c>
       <c r="AP3" s="1">
         <v>17.575523</v>
       </c>
       <c r="AQ3" s="1">
-        <v>981.702000</v>
+        <v>981.702</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.040200</v>
+        <v>-91.040199999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>63282.937826</v>
+        <v>63282.937826000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.578594</v>
+        <v>17.578593999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>991.564000</v>
+        <v>991.56399999999996</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.498000</v>
+        <v>-108.498</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>63294.040776</v>
+        <v>63294.040776000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>17.581678</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.859000</v>
+        <v>999.85900000000004</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.933000</v>
+        <v>-123.93300000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>63305.399167</v>
+        <v>63305.399167000003</v>
       </c>
       <c r="BE3" s="1">
         <v>17.584833</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.123000</v>
+        <v>-195.12299999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>63316.804660</v>
+        <v>63316.804660000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>17.588001</v>
+        <v>17.588000999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.107000</v>
+        <v>-310.10700000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>63328.154119</v>
+        <v>63328.154118999999</v>
       </c>
       <c r="BO3" s="1">
         <v>17.591154</v>
       </c>
       <c r="BP3" s="1">
-        <v>1213.700000</v>
+        <v>1213.7</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-490.439000</v>
+        <v>-490.43900000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>63338.927720</v>
+        <v>63338.92772</v>
       </c>
       <c r="BT3" s="1">
         <v>17.594147</v>
       </c>
       <c r="BU3" s="1">
-        <v>1335.250000</v>
+        <v>1335.25</v>
       </c>
       <c r="BV3" s="1">
-        <v>-687.323000</v>
+        <v>-687.32299999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>63349.921081</v>
       </c>
       <c r="BY3" s="1">
-        <v>17.597200</v>
+        <v>17.597200000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1470.090000</v>
+        <v>1470.09</v>
       </c>
       <c r="CA3" s="1">
-        <v>-896.597000</v>
+        <v>-896.59699999999998</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>63360.961994</v>
+        <v>63360.961993999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>17.600267</v>
+        <v>17.600266999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1820.980000</v>
+        <v>1820.98</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1392.320000</v>
+        <v>-1392.32</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>63189.395852</v>
+        <v>63189.395852000001</v>
       </c>
       <c r="B4" s="1">
-        <v>17.552610</v>
+        <v>17.552610000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>897.699000</v>
+        <v>897.69899999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.643000</v>
+        <v>-202.643</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>63199.523136</v>
+        <v>63199.523136000003</v>
       </c>
       <c r="G4" s="1">
-        <v>17.555423</v>
+        <v>17.555423000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>916.273000</v>
+        <v>916.27300000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.372000</v>
+        <v>-171.37200000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>63209.706499</v>
@@ -1025,73 +1441,73 @@
         <v>17.558252</v>
       </c>
       <c r="M4" s="1">
-        <v>940.481000</v>
+        <v>940.48099999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.991000</v>
+        <v>-121.991</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>63219.954340</v>
+        <v>63219.954339999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>17.561098</v>
+        <v>17.561098000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>947.455000</v>
+        <v>947.45500000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.340000</v>
+        <v>-105.34</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>63230.466552</v>
+        <v>63230.466551999998</v>
       </c>
       <c r="V4" s="1">
-        <v>17.564018</v>
+        <v>17.564018000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>954.299000</v>
+        <v>954.29899999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.866100</v>
+        <v>-89.866100000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>63240.622171</v>
+        <v>63240.622171000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>17.566839</v>
+        <v>17.566839000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.681000</v>
+        <v>961.68100000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.810200</v>
+        <v>-77.810199999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>63251.191915</v>
+        <v>63251.191915000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.569776</v>
+        <v>17.569776000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.451000</v>
+        <v>966.45100000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.334200</v>
+        <v>-75.334199999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>63261.665901</v>
@@ -1100,375 +1516,375 @@
         <v>17.572685</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.632000</v>
+        <v>973.63199999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.690400</v>
+        <v>-79.690399999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>63272.247056</v>
       </c>
       <c r="AP4" s="1">
-        <v>17.575624</v>
+        <v>17.575624000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>981.694000</v>
+        <v>981.69399999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.061300</v>
+        <v>-91.061300000000003</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>63283.664009</v>
       </c>
       <c r="AU4" s="1">
-        <v>17.578796</v>
+        <v>17.578796000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>991.568000</v>
+        <v>991.56799999999998</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.487000</v>
+        <v>-108.48699999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>63294.758017</v>
       </c>
       <c r="AZ4" s="1">
-        <v>17.581877</v>
+        <v>17.581876999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.849000</v>
+        <v>999.84900000000005</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.967000</v>
+        <v>-123.967</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>63305.758786</v>
+        <v>63305.758785999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>17.584933</v>
+        <v>17.584932999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.118000</v>
+        <v>-195.11799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>63317.179156</v>
+        <v>63317.179155999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>17.588105</v>
+        <v>17.588104999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.149000</v>
+        <v>-310.149</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>63328.578694</v>
+        <v>63328.578694000003</v>
       </c>
       <c r="BO4" s="1">
         <v>17.591272</v>
       </c>
       <c r="BP4" s="1">
-        <v>1213.690000</v>
+        <v>1213.69</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-490.453000</v>
+        <v>-490.45299999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>63339.649399</v>
+        <v>63339.649399000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.594347</v>
+        <v>17.594346999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1335.220000</v>
+        <v>1335.22</v>
       </c>
       <c r="BV4" s="1">
-        <v>-687.258000</v>
+        <v>-687.25800000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>63350.049512</v>
+        <v>63350.049511999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>17.597236</v>
+        <v>17.597235999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1470.130000</v>
+        <v>1470.13</v>
       </c>
       <c r="CA4" s="1">
-        <v>-896.606000</v>
+        <v>-896.60599999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>63361.189161</v>
+        <v>63361.189161000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.600330</v>
+        <v>17.60033</v>
       </c>
       <c r="CE4" s="1">
-        <v>1821.270000</v>
+        <v>1821.27</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1392.290000</v>
+        <v>-1392.29</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>63189.739052</v>
+        <v>63189.739051999997</v>
       </c>
       <c r="B5" s="1">
         <v>17.552705</v>
       </c>
       <c r="C5" s="1">
-        <v>897.855000</v>
+        <v>897.85500000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.550000</v>
+        <v>-202.55</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>63199.955186</v>
+        <v>63199.955185999999</v>
       </c>
       <c r="G5" s="1">
         <v>17.555543</v>
       </c>
       <c r="H5" s="1">
-        <v>915.946000</v>
+        <v>915.94600000000003</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.534000</v>
+        <v>-171.53399999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>63210.129089</v>
+        <v>63210.129089000002</v>
       </c>
       <c r="L5" s="1">
-        <v>17.558369</v>
+        <v>17.558368999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>940.343000</v>
+        <v>940.34299999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-122.013000</v>
+        <v>-122.01300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>63220.241065</v>
+        <v>63220.241065000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>17.561178</v>
+        <v>17.561178000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>947.479000</v>
+        <v>947.47900000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.395000</v>
+        <v>-105.395</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>63230.808791</v>
+        <v>63230.808791000003</v>
       </c>
       <c r="V5" s="1">
         <v>17.564114</v>
       </c>
       <c r="W5" s="1">
-        <v>954.183000</v>
+        <v>954.18299999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.860900</v>
+        <v>-89.860900000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>63240.971354</v>
+        <v>63240.971354000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>17.566936</v>
+        <v>17.566935999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.561000</v>
+        <v>961.56100000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.824400</v>
+        <v>-77.824399999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>63251.535147</v>
+        <v>63251.535147000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>17.569871</v>
+        <v>17.569870999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.392000</v>
+        <v>966.39200000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.318100</v>
+        <v>-75.318100000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>63262.013597</v>
+        <v>63262.013596999997</v>
       </c>
       <c r="AK5" s="1">
         <v>17.572782</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.606000</v>
+        <v>973.60599999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.718100</v>
+        <v>-79.718100000000007</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>63272.966255</v>
+        <v>63272.966254999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>17.575824</v>
+        <v>17.575824000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>981.695000</v>
+        <v>981.69500000000005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.035200</v>
+        <v>-91.035200000000003</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>63284.030015</v>
+        <v>63284.030014999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>17.578897</v>
+        <v>17.578897000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.565000</v>
+        <v>991.56500000000005</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.483000</v>
+        <v>-108.483</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>63295.116098</v>
+        <v>63295.116097999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>17.581977</v>
+        <v>17.581976999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.847000</v>
+        <v>999.84699999999998</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.969000</v>
+        <v>-123.96899999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>63306.122939</v>
+        <v>63306.122939000001</v>
       </c>
       <c r="BE5" s="1">
         <v>17.585034</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.121000</v>
+        <v>-195.12100000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>63317.867619</v>
+        <v>63317.867618999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.588297</v>
+        <v>17.588297000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.104000</v>
+        <v>-310.10399999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>63329.281065</v>
+        <v>63329.281065000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>17.591467</v>
+        <v>17.591467000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1213.690000</v>
+        <v>1213.69</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-490.470000</v>
+        <v>-490.47</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>63339.765957</v>
+        <v>63339.765957000003</v>
       </c>
       <c r="BT5" s="1">
         <v>17.594379</v>
       </c>
       <c r="BU5" s="1">
-        <v>1335.150000</v>
+        <v>1335.15</v>
       </c>
       <c r="BV5" s="1">
-        <v>-687.176000</v>
+        <v>-687.17600000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>63350.488503</v>
@@ -1477,165 +1893,165 @@
         <v>17.597358</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1470.120000</v>
+        <v>1470.12</v>
       </c>
       <c r="CA5" s="1">
-        <v>-896.672000</v>
+        <v>-896.67200000000003</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>63361.709464</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.600475</v>
+        <v>17.600474999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1822.260000</v>
+        <v>1822.26</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1391.850000</v>
+        <v>-1391.85</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>63190.171598</v>
+        <v>63190.171598000001</v>
       </c>
       <c r="B6" s="1">
-        <v>17.552825</v>
+        <v>17.552824999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>897.692000</v>
+        <v>897.69200000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.763000</v>
+        <v>-202.76300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>63200.221502</v>
       </c>
       <c r="G6" s="1">
-        <v>17.555617</v>
+        <v>17.555617000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>916.022000</v>
+        <v>916.02200000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-172.157000</v>
+        <v>-172.15700000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>63210.399906</v>
+        <v>63210.399905999999</v>
       </c>
       <c r="L6" s="1">
-        <v>17.558444</v>
+        <v>17.558444000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>940.323000</v>
+        <v>940.32299999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.883000</v>
+        <v>-121.883</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>63220.590250</v>
+        <v>63220.590250000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>17.561275</v>
+        <v>17.561274999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>947.456000</v>
+        <v>947.45600000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.416000</v>
+        <v>-105.416</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>63231.152549</v>
+        <v>63231.152548999999</v>
       </c>
       <c r="V6" s="1">
-        <v>17.564209</v>
+        <v>17.564209000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>954.170000</v>
+        <v>954.17</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.837000</v>
+        <v>-89.837000000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>63241.320040</v>
+        <v>63241.320039999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>17.567033</v>
+        <v>17.567032999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.590000</v>
+        <v>961.59</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.779200</v>
+        <v>-77.779200000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>63252.219625</v>
+        <v>63252.219624999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.570061</v>
+        <v>17.570060999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.367000</v>
+        <v>966.36699999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.343000</v>
+        <v>-75.343000000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>63262.711482</v>
+        <v>63262.711481999999</v>
       </c>
       <c r="AK6" s="1">
         <v>17.572975</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.626000</v>
+        <v>973.62599999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.708700</v>
+        <v>-79.708699999999993</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>63273.350654</v>
+        <v>63273.350654000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.575931</v>
+        <v>17.575931000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>981.691000</v>
+        <v>981.69100000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.025800</v>
+        <v>-91.025800000000004</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>63284.397094</v>
@@ -1644,392 +2060,392 @@
         <v>17.578999</v>
       </c>
       <c r="AV6" s="1">
-        <v>991.583000</v>
+        <v>991.58299999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.493000</v>
+        <v>-108.49299999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>63295.475737</v>
+        <v>63295.475737000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>17.582077</v>
+        <v>17.582077000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.838000</v>
+        <v>999.83799999999997</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.962000</v>
+        <v>-123.962</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>63306.795394</v>
+        <v>63306.795394000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.585221</v>
+        <v>17.585221000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.110000</v>
+        <v>-195.11</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>63318.308562</v>
+        <v>63318.308561999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.588419</v>
+        <v>17.588418999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.098000</v>
+        <v>-310.09800000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>63329.818195</v>
       </c>
       <c r="BO6" s="1">
-        <v>17.591616</v>
+        <v>17.591615999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-490.457000</v>
+        <v>-490.45699999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>63340.203925</v>
+        <v>63340.203925000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>17.594501</v>
+        <v>17.594501000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1335.100000</v>
+        <v>1335.1</v>
       </c>
       <c r="BV6" s="1">
-        <v>-687.170000</v>
+        <v>-687.17</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>63350.909080</v>
+        <v>63350.909079999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>17.597475</v>
+        <v>17.597474999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1470.020000</v>
+        <v>1470.02</v>
       </c>
       <c r="CA6" s="1">
-        <v>-896.595000</v>
+        <v>-896.59500000000003</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>63362.226792</v>
+        <v>63362.226792000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>17.600619</v>
+        <v>17.600618999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1821.800000</v>
+        <v>1821.8</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1390.720000</v>
+        <v>-1390.72</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>63190.436923</v>
+        <v>63190.436923000001</v>
       </c>
       <c r="B7" s="1">
         <v>17.552899</v>
       </c>
       <c r="C7" s="1">
-        <v>897.789000</v>
+        <v>897.78899999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.646000</v>
+        <v>-202.64599999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>63200.565496</v>
+        <v>63200.565496000003</v>
       </c>
       <c r="G7" s="1">
-        <v>17.555713</v>
+        <v>17.555713000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>915.939000</v>
+        <v>915.93899999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-172.067000</v>
+        <v>-172.06700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>63210.747600</v>
+        <v>63210.747600000002</v>
       </c>
       <c r="L7" s="1">
-        <v>17.558541</v>
+        <v>17.558541000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>940.338000</v>
+        <v>940.33799999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-122.018000</v>
+        <v>-122.018</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>63220.937907</v>
       </c>
       <c r="Q7" s="1">
-        <v>17.561372</v>
+        <v>17.561371999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>947.423000</v>
+        <v>947.423</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.344000</v>
+        <v>-105.34399999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>63231.834522</v>
+        <v>63231.834521999997</v>
       </c>
       <c r="V7" s="1">
-        <v>17.564398</v>
+        <v>17.564398000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>954.276000</v>
+        <v>954.27599999999995</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.929900</v>
+        <v>-89.929900000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>63242.018870</v>
+        <v>63242.01887</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.567227</v>
+        <v>17.567226999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.686000</v>
+        <v>961.68600000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.798500</v>
+        <v>-77.798500000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>63252.566820</v>
+        <v>63252.56682</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.570157</v>
+        <v>17.570156999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.427000</v>
+        <v>966.42700000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.266800</v>
+        <v>-75.266800000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>63263.060024</v>
+        <v>63263.060023999999</v>
       </c>
       <c r="AK7" s="1">
         <v>17.573072</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.633000</v>
+        <v>973.63300000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.695900</v>
+        <v>-79.695899999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>63273.731581</v>
       </c>
       <c r="AP7" s="1">
-        <v>17.576037</v>
+        <v>17.576036999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>981.703000</v>
+        <v>981.70299999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.041000</v>
+        <v>-91.040999999999997</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>63285.069663</v>
+        <v>63285.069663000002</v>
       </c>
       <c r="AU7" s="1">
         <v>17.579186</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.580000</v>
+        <v>991.58</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.500000</v>
+        <v>-108.5</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>63296.185018</v>
+        <v>63296.185017999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>17.582274</v>
+        <v>17.582274000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.841000</v>
+        <v>999.84100000000001</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.961000</v>
+        <v>-123.961</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>63307.207107</v>
+        <v>63307.207107000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.585335</v>
+        <v>17.585335000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.590000</v>
+        <v>1038.5899999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.116000</v>
+        <v>-195.11600000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>63318.679537</v>
+        <v>63318.679537000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>17.588522</v>
+        <v>17.588522000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.114000</v>
+        <v>-310.11399999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>63330.220687</v>
+        <v>63330.220687000001</v>
       </c>
       <c r="BO7" s="1">
         <v>17.591728</v>
       </c>
       <c r="BP7" s="1">
-        <v>1213.700000</v>
+        <v>1213.7</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-490.473000</v>
+        <v>-490.47300000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>63340.617620</v>
+        <v>63340.617619999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.594616</v>
+        <v>17.594615999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1335.000000</v>
+        <v>1335</v>
       </c>
       <c r="BV7" s="1">
-        <v>-687.161000</v>
+        <v>-687.16099999999994</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>63351.336136</v>
+        <v>63351.336135999998</v>
       </c>
       <c r="BY7" s="1">
         <v>17.597593</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1470.000000</v>
+        <v>1470</v>
       </c>
       <c r="CA7" s="1">
-        <v>-896.662000</v>
+        <v>-896.66200000000003</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>63362.747096</v>
+        <v>63362.747095999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.600763</v>
+        <v>17.600763000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1820.640000</v>
+        <v>1820.64</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1391.580000</v>
+        <v>-1391.58</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>63190.779164</v>
       </c>
       <c r="B8" s="1">
-        <v>17.552994</v>
+        <v>17.552994000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>897.676000</v>
+        <v>897.67600000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.657000</v>
+        <v>-202.65700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>63200.910978</v>
@@ -2038,103 +2454,103 @@
         <v>17.555809</v>
       </c>
       <c r="H8" s="1">
-        <v>915.869000</v>
+        <v>915.86900000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.602000</v>
+        <v>-171.602</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>63211.093840</v>
+        <v>63211.093840000001</v>
       </c>
       <c r="L8" s="1">
-        <v>17.558637</v>
+        <v>17.558637000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>940.411000</v>
+        <v>940.41099999999994</v>
       </c>
       <c r="N8" s="1">
-        <v>-122.028000</v>
+        <v>-122.02800000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>63221.637267</v>
+        <v>63221.637266999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>17.561566</v>
+        <v>17.561565999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>947.435000</v>
+        <v>947.43499999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.324000</v>
+        <v>-105.324</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>63232.184197</v>
+        <v>63232.184197000002</v>
       </c>
       <c r="V8" s="1">
-        <v>17.564496</v>
+        <v>17.564495999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>954.349000</v>
+        <v>954.34900000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.897200</v>
+        <v>-89.897199999999998</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>63242.367064</v>
+        <v>63242.367063999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>17.567324</v>
+        <v>17.567323999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.625000</v>
+        <v>961.625</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.800100</v>
+        <v>-77.8001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>63252.907050</v>
+        <v>63252.907050000002</v>
       </c>
       <c r="AF8" s="1">
         <v>17.570252</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.485000</v>
+        <v>966.48500000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.275500</v>
+        <v>-75.275499999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>63263.721322</v>
+        <v>63263.721321999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>17.573256</v>
+        <v>17.573256000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.623000</v>
+        <v>973.62300000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.687700</v>
+        <v>-79.687700000000007</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>63274.406636</v>
@@ -2143,754 +2559,754 @@
         <v>17.576224</v>
       </c>
       <c r="AQ8" s="1">
-        <v>981.732000</v>
+        <v>981.73199999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.023900</v>
+        <v>-91.023899999999998</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>63285.508101</v>
+        <v>63285.508100999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.579308</v>
+        <v>17.579308000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>991.566000</v>
+        <v>991.56600000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.495000</v>
+        <v>-108.495</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>63296.576356</v>
+        <v>63296.576355999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.582382</v>
+        <v>17.582381999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.860000</v>
+        <v>999.86</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.972000</v>
+        <v>-123.97199999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>63307.597425</v>
       </c>
       <c r="BE8" s="1">
-        <v>17.585444</v>
+        <v>17.585443999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.590000</v>
+        <v>1038.5899999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.130000</v>
+        <v>-195.13</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>63319.056035</v>
+        <v>63319.056035000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>17.588627</v>
+        <v>17.588626999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.119000</v>
+        <v>-310.11900000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>63330.652962</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.591848</v>
+        <v>17.591847999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1213.730000</v>
+        <v>1213.73</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-490.458000</v>
+        <v>-490.45800000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>63341.055061</v>
+        <v>63341.055060999999</v>
       </c>
       <c r="BT8" s="1">
         <v>17.594738</v>
       </c>
       <c r="BU8" s="1">
-        <v>1334.830000</v>
+        <v>1334.83</v>
       </c>
       <c r="BV8" s="1">
-        <v>-687.164000</v>
+        <v>-687.16399999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>63351.759223</v>
+        <v>63351.759223000001</v>
       </c>
       <c r="BY8" s="1">
         <v>17.597711</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1470.070000</v>
+        <v>1470.07</v>
       </c>
       <c r="CA8" s="1">
-        <v>-896.631000</v>
+        <v>-896.63099999999997</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>63363.264422</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.600907</v>
+        <v>17.600906999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1820.740000</v>
+        <v>1820.74</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1391.540000</v>
+        <v>-1391.54</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>63191.117436</v>
       </c>
       <c r="B9" s="1">
-        <v>17.553088</v>
+        <v>17.553087999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>897.730000</v>
+        <v>897.73</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.587000</v>
+        <v>-202.58699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>63201.601900</v>
+        <v>63201.601900000001</v>
       </c>
       <c r="G9" s="1">
-        <v>17.556001</v>
+        <v>17.556000999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>916.542000</v>
+        <v>916.54200000000003</v>
       </c>
       <c r="I9" s="1">
-        <v>-172.134000</v>
+        <v>-172.13399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>63211.785760</v>
+        <v>63211.785759999999</v>
       </c>
       <c r="L9" s="1">
-        <v>17.558829</v>
+        <v>17.558828999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>940.365000</v>
+        <v>940.36500000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-122.063000</v>
+        <v>-122.063</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>63221.983969</v>
+        <v>63221.983969000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>17.561662</v>
+        <v>17.561661999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>947.490000</v>
+        <v>947.49</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.350000</v>
+        <v>-105.35</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>63232.523957</v>
+        <v>63232.523956999998</v>
       </c>
       <c r="V9" s="1">
-        <v>17.564590</v>
+        <v>17.564589999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>954.305000</v>
+        <v>954.30499999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.853900</v>
+        <v>-89.853899999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>63242.715750</v>
+        <v>63242.715750000003</v>
       </c>
       <c r="AA9" s="1">
         <v>17.567421</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.632000</v>
+        <v>961.63199999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.773500</v>
+        <v>-77.773499999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>63253.562760</v>
+        <v>63253.562760000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>17.570434</v>
+        <v>17.570433999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.270000</v>
+        <v>966.27</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.336300</v>
+        <v>-75.336299999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>63264.105226</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.573363</v>
+        <v>17.573363000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.602000</v>
+        <v>973.60199999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.706500</v>
+        <v>-79.706500000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>63274.814844</v>
       </c>
       <c r="AP9" s="1">
-        <v>17.576337</v>
+        <v>17.576336999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>981.705000</v>
+        <v>981.70500000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.030300</v>
+        <v>-91.030299999999997</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>63285.873150</v>
+        <v>63285.873149999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>17.579409</v>
+        <v>17.579408999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.581000</v>
+        <v>991.58100000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.486000</v>
+        <v>-108.486</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>63296.955263</v>
+        <v>63296.955263000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.582488</v>
+        <v>17.582488000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.852000</v>
+        <v>999.85199999999998</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.964000</v>
+        <v>-123.964</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>63307.957521</v>
+        <v>63307.957520999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.585544</v>
+        <v>17.585543999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.109000</v>
+        <v>-195.10900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>63319.496946</v>
+        <v>63319.496945999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>17.588749</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.430000</v>
+        <v>1105.43</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.102000</v>
+        <v>-310.10199999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>63331.029458</v>
+        <v>63331.029457999997</v>
       </c>
       <c r="BO9" s="1">
         <v>17.591953</v>
       </c>
       <c r="BP9" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-490.454000</v>
+        <v>-490.45400000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>63341.446931</v>
+        <v>63341.446930999999</v>
       </c>
       <c r="BT9" s="1">
         <v>17.594846</v>
       </c>
       <c r="BU9" s="1">
-        <v>1334.790000</v>
+        <v>1334.79</v>
       </c>
       <c r="BV9" s="1">
-        <v>-687.221000</v>
+        <v>-687.221</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>63352.176357</v>
+        <v>63352.176356999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>17.597827</v>
+        <v>17.597826999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1470.010000</v>
+        <v>1470.01</v>
       </c>
       <c r="CA9" s="1">
-        <v>-896.672000</v>
+        <v>-896.67200000000003</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>63363.813500</v>
+        <v>63363.813499999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>17.601059</v>
+        <v>17.601058999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1821.300000</v>
+        <v>1821.3</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1390.690000</v>
+        <v>-1390.69</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>63191.801418</v>
+        <v>63191.801418000003</v>
       </c>
       <c r="B10" s="1">
-        <v>17.553278</v>
+        <v>17.553277999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>897.851000</v>
+        <v>897.851</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.610000</v>
+        <v>-202.61</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>63201.945596</v>
+        <v>63201.945595999998</v>
       </c>
       <c r="G10" s="1">
         <v>17.556096</v>
       </c>
       <c r="H10" s="1">
-        <v>916.305000</v>
+        <v>916.30499999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.579000</v>
+        <v>-171.57900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>63212.137887</v>
+        <v>63212.137886999997</v>
       </c>
       <c r="L10" s="1">
-        <v>17.558927</v>
+        <v>17.558927000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>940.281000</v>
+        <v>940.28099999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.994000</v>
+        <v>-121.994</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>63222.333650</v>
+        <v>63222.33365</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.561759</v>
+        <v>17.561758999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>947.435000</v>
+        <v>947.43499999999995</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.378000</v>
+        <v>-105.378</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>63233.178674</v>
+        <v>63233.178674000003</v>
       </c>
       <c r="V10" s="1">
-        <v>17.564772</v>
+        <v>17.564772000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>954.211000</v>
+        <v>954.21100000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.849100</v>
+        <v>-89.849100000000007</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>63243.371958</v>
+        <v>63243.371958000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.567603</v>
+        <v>17.567602999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.615000</v>
+        <v>961.61500000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.772800</v>
+        <v>-77.772800000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>63253.939719</v>
+        <v>63253.939719000002</v>
       </c>
       <c r="AF10" s="1">
         <v>17.570539</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.439000</v>
+        <v>966.43899999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.233200</v>
+        <v>-75.233199999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>63264.451929</v>
+        <v>63264.451929000003</v>
       </c>
       <c r="AK10" s="1">
         <v>17.573459</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.621000</v>
+        <v>973.62099999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.720300</v>
+        <v>-79.720299999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>63275.200732</v>
+        <v>63275.200731999998</v>
       </c>
       <c r="AP10" s="1">
         <v>17.576445</v>
       </c>
       <c r="AQ10" s="1">
-        <v>981.712000</v>
+        <v>981.71199999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.041900</v>
+        <v>-91.041899999999998</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>63286.240226</v>
+        <v>63286.240226000002</v>
       </c>
       <c r="AU10" s="1">
         <v>17.579511</v>
       </c>
       <c r="AV10" s="1">
-        <v>991.574000</v>
+        <v>991.57399999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.477000</v>
+        <v>-108.477</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>63297.391743</v>
       </c>
       <c r="AZ10" s="1">
-        <v>17.582609</v>
+        <v>17.582609000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.844000</v>
+        <v>999.84400000000005</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.957000</v>
+        <v>-123.95699999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>63308.378127</v>
+        <v>63308.378127000004</v>
       </c>
       <c r="BE10" s="1">
-        <v>17.585661</v>
+        <v>17.585661000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.100000</v>
+        <v>-195.1</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>63319.833757</v>
       </c>
       <c r="BJ10" s="1">
-        <v>17.588843</v>
+        <v>17.588843000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.120000</v>
+        <v>-310.12</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>63331.445073</v>
+        <v>63331.445073000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>17.592068</v>
+        <v>17.592068000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-490.433000</v>
+        <v>-490.43299999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>63341.859572</v>
+        <v>63341.859572000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.594961</v>
+        <v>17.594961000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1334.750000</v>
+        <v>1334.75</v>
       </c>
       <c r="BV10" s="1">
-        <v>-687.288000</v>
+        <v>-687.28800000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>63352.622293</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.597951</v>
+        <v>17.597950999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1470.020000</v>
+        <v>1470.02</v>
       </c>
       <c r="CA10" s="1">
-        <v>-896.663000</v>
+        <v>-896.66300000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>63364.343719</v>
+        <v>63364.343718999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>17.601207</v>
+        <v>17.601206999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1820.720000</v>
+        <v>1820.72</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1392.030000</v>
+        <v>-1392.03</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>63192.145179</v>
+        <v>63192.145178999999</v>
       </c>
       <c r="B11" s="1">
-        <v>17.553374</v>
+        <v>17.553374000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>897.766000</v>
+        <v>897.76599999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.512000</v>
+        <v>-202.512</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>63202.288331</v>
+        <v>63202.288331000003</v>
       </c>
       <c r="G11" s="1">
-        <v>17.556191</v>
+        <v>17.556190999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>915.809000</v>
+        <v>915.80899999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.956000</v>
+        <v>-171.95599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>63212.476158</v>
+        <v>63212.476157999998</v>
       </c>
       <c r="L11" s="1">
-        <v>17.559021</v>
+        <v>17.559021000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>940.416000</v>
+        <v>940.41600000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-122.053000</v>
+        <v>-122.053</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>63222.998784</v>
+        <v>63222.998784000003</v>
       </c>
       <c r="Q11" s="1">
         <v>17.561944</v>
       </c>
       <c r="R11" s="1">
-        <v>947.429000</v>
+        <v>947.42899999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.367000</v>
+        <v>-105.367</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>63233.556131</v>
+        <v>63233.556130999998</v>
       </c>
       <c r="V11" s="1">
-        <v>17.564877</v>
+        <v>17.564876999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>954.270000</v>
+        <v>954.27</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.945600</v>
+        <v>-89.945599999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>63243.757350</v>
+        <v>63243.75735</v>
       </c>
       <c r="AA11" s="1">
-        <v>17.567710</v>
+        <v>17.567710000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.647000</v>
+        <v>961.64700000000005</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.830700</v>
+        <v>-77.830699999999993</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>63254.284935</v>
+        <v>63254.284935000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>17.570635</v>
+        <v>17.570634999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.373000</v>
+        <v>966.37300000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.329300</v>
+        <v>-75.329300000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>63264.800616</v>
@@ -2899,724 +3315,724 @@
         <v>17.573556</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.617000</v>
+        <v>973.61699999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.696100</v>
+        <v>-79.696100000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>63275.562810</v>
+        <v>63275.562810000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.576545</v>
+        <v>17.576544999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>981.709000</v>
+        <v>981.70899999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.049100</v>
+        <v>-91.049099999999996</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>63286.653357</v>
+        <v>63286.653357000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.579626</v>
+        <v>17.579626000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>991.557000</v>
+        <v>991.55700000000002</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.501000</v>
+        <v>-108.501</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>63297.675455</v>
+        <v>63297.675454999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>17.582688</v>
+        <v>17.582688000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.864000</v>
+        <v>999.86400000000003</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.951000</v>
+        <v>-123.95099999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>63308.679231</v>
+        <v>63308.679231000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.585744</v>
+        <v>17.585743999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.108000</v>
+        <v>-195.108</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>63320.210721</v>
+        <v>63320.210721000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>17.588947</v>
+        <v>17.588947000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.114000</v>
+        <v>-310.11399999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>63331.844384</v>
+        <v>63331.844384000004</v>
       </c>
       <c r="BO11" s="1">
-        <v>17.592179</v>
+        <v>17.592179000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1213.760000</v>
+        <v>1213.76</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-490.465000</v>
+        <v>-490.46499999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>63342.277700</v>
+        <v>63342.277699999999</v>
       </c>
       <c r="BT11" s="1">
         <v>17.595077</v>
       </c>
       <c r="BU11" s="1">
-        <v>1334.730000</v>
+        <v>1334.73</v>
       </c>
       <c r="BV11" s="1">
-        <v>-687.405000</v>
+        <v>-687.40499999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>63353.043364</v>
+        <v>63353.043363999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.598068</v>
+        <v>17.598068000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1470.140000</v>
+        <v>1470.14</v>
       </c>
       <c r="CA11" s="1">
-        <v>-896.619000</v>
+        <v>-896.61900000000003</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>63364.861572</v>
+        <v>63364.861572000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>17.601350</v>
+        <v>17.60135</v>
       </c>
       <c r="CE11" s="1">
-        <v>1822.160000</v>
+        <v>1822.16</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1392.220000</v>
+        <v>-1392.22</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>63192.488872</v>
+        <v>63192.488872000002</v>
       </c>
       <c r="B12" s="1">
         <v>17.553469</v>
       </c>
       <c r="C12" s="1">
-        <v>897.659000</v>
+        <v>897.65899999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.672000</v>
+        <v>-202.672</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>63202.946059</v>
+        <v>63202.946059000002</v>
       </c>
       <c r="G12" s="1">
-        <v>17.556374</v>
+        <v>17.556374000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>916.041000</v>
+        <v>916.04100000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.289000</v>
+        <v>-171.28899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>63213.196846</v>
+        <v>63213.196845999999</v>
       </c>
       <c r="L12" s="1">
-        <v>17.559221</v>
+        <v>17.559221000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>940.258000</v>
+        <v>940.25800000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-122.005000</v>
+        <v>-122.005</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>63223.379215</v>
+        <v>63223.379215000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.562050</v>
+        <v>17.562049999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>947.422000</v>
+        <v>947.42200000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.366000</v>
+        <v>-105.366</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>63233.899377</v>
+        <v>63233.899377000002</v>
       </c>
       <c r="V12" s="1">
-        <v>17.564972</v>
+        <v>17.564972000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>954.354000</v>
+        <v>954.35400000000004</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.826000</v>
+        <v>-89.825999999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>63244.110532</v>
+        <v>63244.110531999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>17.567808</v>
+        <v>17.567807999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.649000</v>
+        <v>961.649</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.835600</v>
+        <v>-77.835599999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>63254.629686</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.570730</v>
+        <v>17.570730000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.334000</v>
+        <v>966.33399999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.342800</v>
+        <v>-75.342799999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>63265.222218</v>
+        <v>63265.222218000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>17.573673</v>
+        <v>17.573672999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.620000</v>
+        <v>973.62</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.708400</v>
+        <v>-79.708399999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>63275.991354</v>
+        <v>63275.991353999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.576664</v>
+        <v>17.576664000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>981.699000</v>
+        <v>981.69899999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.044800</v>
+        <v>-91.044799999999995</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>63286.967323</v>
+        <v>63286.967322999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>17.579713</v>
+        <v>17.579713000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>991.559000</v>
+        <v>991.55899999999997</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.493000</v>
+        <v>-108.49299999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>63298.032587</v>
+        <v>63298.032587000002</v>
       </c>
       <c r="AZ12" s="1">
         <v>17.582787</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.848000</v>
+        <v>999.84799999999996</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.959000</v>
+        <v>-123.959</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>63309.038322</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.585844</v>
+        <v>17.585844000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.630000</v>
+        <v>1038.6300000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.099000</v>
+        <v>-195.09899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>63320.585665</v>
+        <v>63320.585664999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>17.589052</v>
+        <v>17.589051999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.106000</v>
+        <v>-310.10599999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>63332.268959</v>
+        <v>63332.268959000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>17.592297</v>
+        <v>17.592296999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1213.740000</v>
+        <v>1213.74</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-490.461000</v>
+        <v>-490.46100000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>63342.702275</v>
+        <v>63342.702275000003</v>
       </c>
       <c r="BT12" s="1">
         <v>17.595195</v>
       </c>
       <c r="BU12" s="1">
-        <v>1334.680000</v>
+        <v>1334.68</v>
       </c>
       <c r="BV12" s="1">
-        <v>-687.451000</v>
+        <v>-687.45100000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>63353.467940</v>
+        <v>63353.467940000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>17.598186</v>
+        <v>17.598185999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1470.060000</v>
+        <v>1470.06</v>
       </c>
       <c r="CA12" s="1">
-        <v>-896.707000</v>
+        <v>-896.70699999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>63365.383364</v>
+        <v>63365.383364000001</v>
       </c>
       <c r="CD12" s="1">
         <v>17.601495</v>
       </c>
       <c r="CE12" s="1">
-        <v>1821.750000</v>
+        <v>1821.75</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1390.930000</v>
+        <v>-1390.93</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>63193.149049</v>
       </c>
       <c r="B13" s="1">
-        <v>17.553653</v>
+        <v>17.553653000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>897.824000</v>
+        <v>897.82399999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.600000</v>
+        <v>-202.6</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>63203.321499</v>
+        <v>63203.321498999998</v>
       </c>
       <c r="G13" s="1">
-        <v>17.556478</v>
+        <v>17.556477999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>915.779000</v>
+        <v>915.779</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.742000</v>
+        <v>-171.74199999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>63213.518290</v>
+        <v>63213.51829</v>
       </c>
       <c r="L13" s="1">
-        <v>17.559311</v>
+        <v>17.559311000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>940.516000</v>
+        <v>940.51599999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.886000</v>
+        <v>-121.886</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>63223.728413</v>
+        <v>63223.728412999997</v>
       </c>
       <c r="Q13" s="1">
         <v>17.562147</v>
       </c>
       <c r="R13" s="1">
-        <v>947.425000</v>
+        <v>947.42499999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.320000</v>
+        <v>-105.32</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>63234.241601</v>
+        <v>63234.241601000002</v>
       </c>
       <c r="V13" s="1">
-        <v>17.565067</v>
+        <v>17.565066999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>954.307000</v>
+        <v>954.30700000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.771200</v>
+        <v>-89.771199999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>63244.461775</v>
+        <v>63244.461775000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>17.567906</v>
+        <v>17.567906000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.655000</v>
+        <v>961.65499999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.745600</v>
+        <v>-77.745599999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>63255.058695</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.570850</v>
+        <v>17.57085</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.484000</v>
+        <v>966.48400000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.292200</v>
+        <v>-75.292199999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>63265.496504</v>
+        <v>63265.496504000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>17.573749</v>
+        <v>17.573748999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.624000</v>
+        <v>973.62400000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.697100</v>
+        <v>-79.697100000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>63276.281514</v>
+        <v>63276.281514000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.576745</v>
+        <v>17.576744999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>981.702000</v>
+        <v>981.702</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.032200</v>
+        <v>-91.032200000000003</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>63287.333371</v>
+        <v>63287.333371000001</v>
       </c>
       <c r="AU13" s="1">
         <v>17.579815</v>
       </c>
       <c r="AV13" s="1">
-        <v>991.547000</v>
+        <v>991.54700000000003</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.497000</v>
+        <v>-108.497</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>63298.392173</v>
       </c>
       <c r="AZ13" s="1">
-        <v>17.582887</v>
+        <v>17.582886999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.859000</v>
+        <v>999.85900000000004</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.964000</v>
+        <v>-123.964</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>63309.397933</v>
       </c>
       <c r="BE13" s="1">
-        <v>17.585944</v>
+        <v>17.585944000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.096000</v>
+        <v>-195.096</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>63321.336638</v>
+        <v>63321.336638000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>17.589260</v>
+        <v>17.589259999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.470000</v>
+        <v>1105.47</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.129000</v>
+        <v>-310.12900000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>63332.661297</v>
+        <v>63332.661296999999</v>
       </c>
       <c r="BO13" s="1">
         <v>17.592406</v>
       </c>
       <c r="BP13" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-490.471000</v>
+        <v>-490.471</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>63343.108497</v>
+        <v>63343.108497000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>17.595308</v>
+        <v>17.595307999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1334.670000</v>
+        <v>1334.67</v>
       </c>
       <c r="BV13" s="1">
-        <v>-687.527000</v>
+        <v>-687.52700000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>63353.914867</v>
       </c>
       <c r="BY13" s="1">
-        <v>17.598310</v>
+        <v>17.598310000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1470.040000</v>
+        <v>1470.04</v>
       </c>
       <c r="CA13" s="1">
-        <v>-896.700000</v>
+        <v>-896.7</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>63366.204210</v>
+        <v>63366.204210000004</v>
       </c>
       <c r="CD13" s="1">
         <v>17.601723</v>
       </c>
       <c r="CE13" s="1">
-        <v>1820.530000</v>
+        <v>1820.53</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1391.560000</v>
+        <v>-1391.56</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>63193.508152</v>
+        <v>63193.508152000002</v>
       </c>
       <c r="B14" s="1">
-        <v>17.553752</v>
+        <v>17.553751999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>897.660000</v>
+        <v>897.66</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.413000</v>
+        <v>-202.41300000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>63203.669193</v>
+        <v>63203.669193000002</v>
       </c>
       <c r="G14" s="1">
-        <v>17.556575</v>
+        <v>17.556574999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>916.357000</v>
+        <v>916.35699999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.833000</v>
+        <v>-171.833</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>63213.862007</v>
+        <v>63213.862007000003</v>
       </c>
       <c r="L14" s="1">
-        <v>17.559406</v>
+        <v>17.559405999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>940.254000</v>
+        <v>940.25400000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.997000</v>
+        <v>-121.997</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>63224.079106</v>
+        <v>63224.079105999997</v>
       </c>
       <c r="Q14" s="1">
         <v>17.562244</v>
       </c>
       <c r="R14" s="1">
-        <v>947.457000</v>
+        <v>947.45699999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.338000</v>
+        <v>-105.33799999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>63234.664718</v>
@@ -3625,225 +4041,225 @@
         <v>17.565185</v>
       </c>
       <c r="W14" s="1">
-        <v>954.330000</v>
+        <v>954.33</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.883900</v>
+        <v>-89.883899999999997</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>63244.883304</v>
+        <v>63244.883304000003</v>
       </c>
       <c r="AA14" s="1">
         <v>17.568023</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.575000</v>
+        <v>961.57500000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.744300</v>
+        <v>-77.744299999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>63255.335957</v>
+        <v>63255.335957000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.570927</v>
+        <v>17.570927000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.412000</v>
+        <v>966.41200000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.289500</v>
+        <v>-75.289500000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>63265.846183</v>
+        <v>63265.846183000001</v>
       </c>
       <c r="AK14" s="1">
         <v>17.573846</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.604000</v>
+        <v>973.60400000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.706800</v>
+        <v>-79.706800000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>63276.645114</v>
+        <v>63276.645113999999</v>
       </c>
       <c r="AP14" s="1">
         <v>17.576846</v>
       </c>
       <c r="AQ14" s="1">
-        <v>981.698000</v>
+        <v>981.69799999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.046100</v>
+        <v>-91.046099999999996</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>63287.698923</v>
+        <v>63287.698923000004</v>
       </c>
       <c r="AU14" s="1">
-        <v>17.579916</v>
+        <v>17.579916000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>991.546000</v>
+        <v>991.54600000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.496000</v>
+        <v>-108.496</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>63299.108397</v>
+        <v>63299.108397000004</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.583086</v>
+        <v>17.583086000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.852000</v>
+        <v>999.85199999999998</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.971000</v>
+        <v>-123.971</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>63310.123055</v>
+        <v>63310.123054999996</v>
       </c>
       <c r="BE14" s="1">
-        <v>17.586145</v>
+        <v>17.586144999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.590000</v>
+        <v>1038.5899999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.115000</v>
+        <v>-195.11500000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>63321.710591</v>
+        <v>63321.710591000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>17.589364</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.111000</v>
+        <v>-310.11099999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>63333.080911</v>
+        <v>63333.080910999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.592522</v>
+        <v>17.592521999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-490.484000</v>
+        <v>-490.48399999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>63343.522162</v>
+        <v>63343.522162000001</v>
       </c>
       <c r="BT14" s="1">
         <v>17.595423</v>
       </c>
       <c r="BU14" s="1">
-        <v>1334.760000</v>
+        <v>1334.76</v>
       </c>
       <c r="BV14" s="1">
-        <v>-687.618000</v>
+        <v>-687.61800000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>63354.660323</v>
+        <v>63354.660322999996</v>
       </c>
       <c r="BY14" s="1">
-        <v>17.598517</v>
+        <v>17.598517000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1470.080000</v>
+        <v>1470.08</v>
       </c>
       <c r="CA14" s="1">
-        <v>-896.669000</v>
+        <v>-896.66899999999998</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>63366.418515</v>
+        <v>63366.418514999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>17.601783</v>
+        <v>17.601783000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1821.680000</v>
+        <v>1821.68</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1392.690000</v>
+        <v>-1392.69</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>63193.855385</v>
+        <v>63193.855385000003</v>
       </c>
       <c r="B15" s="1">
         <v>17.553849</v>
       </c>
       <c r="C15" s="1">
-        <v>897.810000</v>
+        <v>897.81</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.551000</v>
+        <v>-202.55099999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>63204.012954</v>
+        <v>63204.012953999998</v>
       </c>
       <c r="G15" s="1">
-        <v>17.556670</v>
+        <v>17.55667</v>
       </c>
       <c r="H15" s="1">
-        <v>916.019000</v>
+        <v>916.01900000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.614000</v>
+        <v>-171.614</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>63214.287548</v>
@@ -3852,330 +4268,330 @@
         <v>17.559524</v>
       </c>
       <c r="M15" s="1">
-        <v>940.275000</v>
+        <v>940.27499999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-122.023000</v>
+        <v>-122.023</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>63224.502654</v>
+        <v>63224.502654000004</v>
       </c>
       <c r="Q15" s="1">
         <v>17.562362</v>
       </c>
       <c r="R15" s="1">
-        <v>947.475000</v>
+        <v>947.47500000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.357000</v>
+        <v>-105.357</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>63234.956347</v>
+        <v>63234.956346999999</v>
       </c>
       <c r="V15" s="1">
-        <v>17.565266</v>
+        <v>17.565266000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>954.223000</v>
+        <v>954.22299999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.998900</v>
+        <v>-89.998900000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>63245.164500</v>
+        <v>63245.164499999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>17.568101</v>
+        <v>17.568100999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.649000</v>
+        <v>961.649</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.750800</v>
+        <v>-77.750799999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>63255.683156</v>
+        <v>63255.683155999999</v>
       </c>
       <c r="AF15" s="1">
         <v>17.571023</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.382000</v>
+        <v>966.38199999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.334600</v>
+        <v>-75.334599999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>63266.196359</v>
+        <v>63266.196359000001</v>
       </c>
       <c r="AK15" s="1">
         <v>17.573943</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.614000</v>
+        <v>973.61400000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.694500</v>
+        <v>-79.694500000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>63277.002697</v>
+        <v>63277.002697000004</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.576945</v>
+        <v>17.576944999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>981.714000</v>
+        <v>981.71400000000006</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.020700</v>
+        <v>-91.020700000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>63288.426057</v>
+        <v>63288.426056999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.580118</v>
+        <v>17.580117999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>991.571000</v>
+        <v>991.57100000000003</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.471000</v>
+        <v>-108.471</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>63299.466508</v>
+        <v>63299.466507999998</v>
       </c>
       <c r="AZ15" s="1">
         <v>17.583185</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.855000</v>
+        <v>999.85500000000002</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.969000</v>
+        <v>-123.96899999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>63310.483168</v>
+        <v>63310.483167999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>17.586245</v>
+        <v>17.586245000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.100000</v>
+        <v>-195.1</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>63322.087085</v>
+        <v>63322.087084999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>17.589469</v>
+        <v>17.589469000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.120000</v>
+        <v>-310.12</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>63333.799086</v>
+        <v>63333.799085999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>17.592722</v>
+        <v>17.592721999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-490.434000</v>
+        <v>-490.43400000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>63344.245359</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.595624</v>
+        <v>17.595624000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1334.830000</v>
+        <v>1334.83</v>
       </c>
       <c r="BV15" s="1">
-        <v>-687.712000</v>
+        <v>-687.71199999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>63354.780851</v>
+        <v>63354.780851000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.598550</v>
+        <v>17.598549999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1469.970000</v>
+        <v>1469.97</v>
       </c>
       <c r="CA15" s="1">
-        <v>-896.593000</v>
+        <v>-896.59299999999996</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>63366.937793</v>
+        <v>63366.937792999997</v>
       </c>
       <c r="CD15" s="1">
         <v>17.601927</v>
       </c>
       <c r="CE15" s="1">
-        <v>1821.730000</v>
+        <v>1821.73</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1392.440000</v>
+        <v>-1392.44</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>63194.195143</v>
+        <v>63194.195142999997</v>
       </c>
       <c r="B16" s="1">
         <v>17.553943</v>
       </c>
       <c r="C16" s="1">
-        <v>897.794000</v>
+        <v>897.79399999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.509000</v>
+        <v>-202.50899999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>63204.438024</v>
+        <v>63204.438024000003</v>
       </c>
       <c r="G16" s="1">
-        <v>17.556788</v>
+        <v>17.556788000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>916.345000</v>
+        <v>916.34500000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.462000</v>
+        <v>-171.46199999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>63214.551451</v>
+        <v>63214.551450999999</v>
       </c>
       <c r="L16" s="1">
-        <v>17.559598</v>
+        <v>17.559598000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>940.353000</v>
+        <v>940.35299999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.939000</v>
+        <v>-121.93899999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>63224.787394</v>
+        <v>63224.787393999999</v>
       </c>
       <c r="Q16" s="1">
         <v>17.562441</v>
       </c>
       <c r="R16" s="1">
-        <v>947.467000</v>
+        <v>947.46699999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.353000</v>
+        <v>-105.35299999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>63235.300101</v>
+        <v>63235.300101000001</v>
       </c>
       <c r="V16" s="1">
-        <v>17.565361</v>
+        <v>17.565360999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>954.394000</v>
+        <v>954.39400000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.018200</v>
+        <v>-90.018199999999993</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>63245.520132</v>
+        <v>63245.520131999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.568200</v>
+        <v>17.568200000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.592000</v>
+        <v>961.59199999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.782500</v>
+        <v>-77.782499999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>63256.028372</v>
+        <v>63256.028372000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>17.571119</v>
+        <v>17.571118999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.400000</v>
+        <v>966.4</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.259200</v>
+        <v>-75.259200000000007</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>63266.893246</v>
@@ -4184,360 +4600,360 @@
         <v>17.574137</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.608000</v>
+        <v>973.60799999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.706600</v>
+        <v>-79.706599999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>63277.721895</v>
+        <v>63277.721895000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>17.577145</v>
+        <v>17.577145000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>981.694000</v>
+        <v>981.69399999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.024900</v>
+        <v>-91.024900000000002</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>63288.794089</v>
+        <v>63288.794089000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.580221</v>
+        <v>17.580221000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>991.580000</v>
+        <v>991.58</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.496000</v>
+        <v>-108.496</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>63299.827098</v>
+        <v>63299.827098000002</v>
       </c>
       <c r="AZ16" s="1">
         <v>17.583285</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.834000</v>
+        <v>999.83399999999995</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.954000</v>
+        <v>-123.95399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>63310.844732</v>
+        <v>63310.844731999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>17.586346</v>
+        <v>17.586345999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.580000</v>
+        <v>1038.58</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.111000</v>
+        <v>-195.11099999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>63322.788112</v>
+        <v>63322.788112000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>17.589663</v>
+        <v>17.589663000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.123000</v>
+        <v>-310.12299999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>63333.907709</v>
+        <v>63333.907708999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>17.592752</v>
+        <v>17.592752000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1213.670000</v>
+        <v>1213.67</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-490.489000</v>
+        <v>-490.48899999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>63344.352745</v>
+        <v>63344.352744999997</v>
       </c>
       <c r="BT16" s="1">
         <v>17.595654</v>
       </c>
       <c r="BU16" s="1">
-        <v>1334.930000</v>
+        <v>1334.93</v>
       </c>
       <c r="BV16" s="1">
-        <v>-687.732000</v>
+        <v>-687.73199999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>63355.203442</v>
+        <v>63355.203441999998</v>
       </c>
       <c r="BY16" s="1">
         <v>17.598668</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1470.000000</v>
+        <v>1470</v>
       </c>
       <c r="CA16" s="1">
-        <v>-896.678000</v>
+        <v>-896.678</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>63367.485874</v>
+        <v>63367.485873999998</v>
       </c>
       <c r="CD16" s="1">
         <v>17.602079</v>
       </c>
       <c r="CE16" s="1">
-        <v>1820.900000</v>
+        <v>1820.9</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1392.270000</v>
+        <v>-1392.27</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>63194.624149</v>
+        <v>63194.624149000003</v>
       </c>
       <c r="B17" s="1">
-        <v>17.554062</v>
+        <v>17.554061999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>897.635000</v>
+        <v>897.63499999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.550000</v>
+        <v>-202.55</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>63204.708313</v>
+        <v>63204.708313000003</v>
       </c>
       <c r="G17" s="1">
         <v>17.556863</v>
       </c>
       <c r="H17" s="1">
-        <v>916.296000</v>
+        <v>916.29600000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.550000</v>
+        <v>-171.55</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>63214.895146</v>
+        <v>63214.895146000003</v>
       </c>
       <c r="L17" s="1">
-        <v>17.559693</v>
+        <v>17.559692999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>940.373000</v>
+        <v>940.37300000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.890000</v>
+        <v>-121.89</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>63225.133106</v>
+        <v>63225.133106000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.562537</v>
+        <v>17.562536999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>947.443000</v>
+        <v>947.44299999999998</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.384000</v>
+        <v>-105.384</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>63235.645281</v>
+        <v>63235.645280999997</v>
       </c>
       <c r="V17" s="1">
-        <v>17.565457</v>
+        <v>17.565456999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>954.370000</v>
+        <v>954.37</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.862400</v>
+        <v>-89.862399999999994</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>63245.868321</v>
+        <v>63245.868321000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.568297</v>
+        <v>17.568297000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.638000</v>
+        <v>961.63800000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.875000</v>
+        <v>-77.875</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>63256.710620</v>
+        <v>63256.710619999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>17.571309</v>
+        <v>17.571308999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.409000</v>
+        <v>966.40899999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.286400</v>
+        <v>-75.2864</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>63267.241429</v>
+        <v>63267.241429000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>17.574234</v>
+        <v>17.574234000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.637000</v>
+        <v>973.63699999999994</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.703500</v>
+        <v>-79.703500000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>63278.084483</v>
+        <v>63278.084482999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>17.577246</v>
+        <v>17.577245999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>981.718000</v>
+        <v>981.71799999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.050000</v>
+        <v>-91.05</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>63289.157160</v>
+        <v>63289.157160000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.580321</v>
+        <v>17.580321000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>991.582000</v>
+        <v>991.58199999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.479000</v>
+        <v>-108.479</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>63300.493263</v>
+        <v>63300.493262999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>17.583470</v>
+        <v>17.583469999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.850000</v>
+        <v>999.85</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.928000</v>
+        <v>-123.928</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>63311.519331</v>
+        <v>63311.519331000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>17.586533</v>
+        <v>17.586532999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.106000</v>
+        <v>-195.10599999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>63323.215451</v>
+        <v>63323.215450999996</v>
       </c>
       <c r="BJ17" s="1">
         <v>17.589782</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.470000</v>
+        <v>1105.47</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.125000</v>
+        <v>-310.125</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>63334.320401</v>
+        <v>63334.320400999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>17.592867</v>
+        <v>17.592866999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-490.464000</v>
+        <v>-490.464</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>63344.788943</v>
@@ -4546,303 +4962,303 @@
         <v>17.595775</v>
       </c>
       <c r="BU17" s="1">
-        <v>1335.010000</v>
+        <v>1335.01</v>
       </c>
       <c r="BV17" s="1">
-        <v>-687.805000</v>
+        <v>-687.80499999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>63355.622105</v>
+        <v>63355.622105000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>17.598784</v>
+        <v>17.598783999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1470.120000</v>
+        <v>1470.12</v>
       </c>
       <c r="CA17" s="1">
-        <v>-896.600000</v>
+        <v>-896.6</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>63368.017584</v>
+        <v>63368.017584000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>17.602227</v>
+        <v>17.602226999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1822.270000</v>
+        <v>1822.27</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1392.090000</v>
+        <v>-1392.09</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>63194.894485</v>
+        <v>63194.894484999997</v>
       </c>
       <c r="B18" s="1">
-        <v>17.554137</v>
+        <v>17.554137000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>897.694000</v>
+        <v>897.69399999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.519000</v>
+        <v>-202.51900000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>63205.054060</v>
+        <v>63205.054060000002</v>
       </c>
       <c r="G18" s="1">
-        <v>17.556959</v>
+        <v>17.556958999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>916.065000</v>
+        <v>916.06500000000005</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.394000</v>
+        <v>-171.39400000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>63215.241851</v>
+        <v>63215.241850999999</v>
       </c>
       <c r="L18" s="1">
-        <v>17.559789</v>
+        <v>17.559788999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>940.322000</v>
+        <v>940.322</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.901000</v>
+        <v>-121.901</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>63225.483742</v>
+        <v>63225.483741999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>17.562634</v>
+        <v>17.562633999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>947.403000</v>
+        <v>947.40300000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.355000</v>
+        <v>-105.355</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>63236.331247</v>
+        <v>63236.331247000002</v>
       </c>
       <c r="V18" s="1">
-        <v>17.565648</v>
+        <v>17.565647999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>954.295000</v>
+        <v>954.29499999999996</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.936800</v>
+        <v>-89.936800000000005</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>63246.568177</v>
+        <v>63246.568177000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.568491</v>
+        <v>17.568491000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.622000</v>
+        <v>961.62199999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.863400</v>
+        <v>-77.863399999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>63257.058068</v>
+        <v>63257.058067999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>17.571405</v>
+        <v>17.571404999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.467000</v>
+        <v>966.46699999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.371000</v>
+        <v>-75.370999999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>63267.592927</v>
+        <v>63267.592926999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.574331</v>
+        <v>17.574331000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.647000</v>
+        <v>973.64700000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.688300</v>
+        <v>-79.688299999999998</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>63278.445064</v>
       </c>
       <c r="AP18" s="1">
-        <v>17.577346</v>
+        <v>17.577345999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>981.693000</v>
+        <v>981.69299999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.048800</v>
+        <v>-91.0488</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>63289.837175</v>
+        <v>63289.837175000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.580510</v>
+        <v>17.58051</v>
       </c>
       <c r="AV18" s="1">
-        <v>991.567000</v>
+        <v>991.56700000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.475000</v>
+        <v>-108.47499999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>63300.900444</v>
+        <v>63300.900443999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.583583</v>
+        <v>17.583583000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.837000</v>
+        <v>999.83699999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.972000</v>
+        <v>-123.97199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>63311.960730</v>
+        <v>63311.960729999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>17.586656</v>
+        <v>17.586656000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.122000</v>
+        <v>-195.12200000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>63323.588972</v>
+        <v>63323.588971999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>17.589886</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.103000</v>
+        <v>-310.10300000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>63334.720332</v>
+        <v>63334.720331999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.592978</v>
+        <v>17.592977999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-490.427000</v>
+        <v>-490.42700000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>63345.217983</v>
+        <v>63345.217983000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.595894</v>
+        <v>17.595894000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1335.060000</v>
+        <v>1335.06</v>
       </c>
       <c r="BV18" s="1">
-        <v>-687.713000</v>
+        <v>-687.71299999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>63356.066482</v>
+        <v>63356.066482000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>17.598907</v>
+        <v>17.598907000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1470.010000</v>
+        <v>1470.01</v>
       </c>
       <c r="CA18" s="1">
-        <v>-896.616000</v>
+        <v>-896.61599999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>63368.532928</v>
+        <v>63368.532928000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.602370</v>
+        <v>17.602370000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1821.650000</v>
+        <v>1821.65</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1392.530000</v>
+        <v>-1392.53</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>63195.238695</v>
       </c>
@@ -4850,994 +5266,994 @@
         <v>17.554233</v>
       </c>
       <c r="C19" s="1">
-        <v>897.625000</v>
+        <v>897.625</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.573000</v>
+        <v>-202.57300000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>63205.398745</v>
+        <v>63205.398744999999</v>
       </c>
       <c r="G19" s="1">
-        <v>17.557055</v>
+        <v>17.557054999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>916.471000</v>
+        <v>916.471</v>
       </c>
       <c r="I19" s="1">
-        <v>-171.734000</v>
+        <v>-171.73400000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>63215.935754</v>
+        <v>63215.935753999998</v>
       </c>
       <c r="L19" s="1">
-        <v>17.559982</v>
+        <v>17.559982000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>940.332000</v>
+        <v>940.33199999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.887000</v>
+        <v>-121.887</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>63226.179627</v>
+        <v>63226.179626999998</v>
       </c>
       <c r="Q19" s="1">
         <v>17.562828</v>
       </c>
       <c r="R19" s="1">
-        <v>947.469000</v>
+        <v>947.46900000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.324000</v>
+        <v>-105.324</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>63236.674013</v>
+        <v>63236.674013000003</v>
       </c>
       <c r="V19" s="1">
-        <v>17.565743</v>
+        <v>17.565743000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>954.253000</v>
+        <v>954.25300000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.809400</v>
+        <v>-89.809399999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>63246.912400</v>
+        <v>63246.912400000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.568587</v>
+        <v>17.568587000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.602000</v>
+        <v>961.60199999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.762800</v>
+        <v>-77.762799999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>63257.398355</v>
+        <v>63257.398354999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>17.571500</v>
+        <v>17.5715</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.458000</v>
+        <v>966.45799999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.509700</v>
+        <v>-75.509699999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>63268.263721</v>
+        <v>63268.263721000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>17.574518</v>
+        <v>17.574518000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.618000</v>
+        <v>973.61800000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.696800</v>
+        <v>-79.696799999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>63279.112182</v>
+        <v>63279.112181999997</v>
       </c>
       <c r="AP19" s="1">
         <v>17.577531</v>
       </c>
       <c r="AQ19" s="1">
-        <v>981.682000</v>
+        <v>981.68200000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.021800</v>
+        <v>-91.021799999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>63290.249847</v>
+        <v>63290.249846999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>17.580625</v>
+        <v>17.580625000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>991.565000</v>
+        <v>991.56500000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.469000</v>
+        <v>-108.46899999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>63301.289305</v>
+        <v>63301.289304999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17.583691</v>
+        <v>17.583691000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.839000</v>
+        <v>999.83900000000006</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.951000</v>
+        <v>-123.95099999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>63312.317391</v>
+        <v>63312.317390999997</v>
       </c>
       <c r="BE19" s="1">
         <v>17.586755</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.610000</v>
+        <v>1038.6099999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.112000</v>
+        <v>-195.11199999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>63323.965402</v>
+        <v>63323.965402000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>17.589990</v>
+        <v>17.58999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.110000</v>
+        <v>-310.11</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>63335.146718</v>
+        <v>63335.146718000004</v>
       </c>
       <c r="BO19" s="1">
-        <v>17.593096</v>
+        <v>17.593095999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1213.670000</v>
+        <v>1213.67</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-490.453000</v>
+        <v>-490.45299999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>63345.648510</v>
+        <v>63345.648509999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>17.596013</v>
+        <v>17.596012999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1335.160000</v>
+        <v>1335.16</v>
       </c>
       <c r="BV19" s="1">
-        <v>-687.734000</v>
+        <v>-687.73400000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>63356.489103</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.599025</v>
+        <v>17.599025000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1469.990000</v>
+        <v>1469.99</v>
       </c>
       <c r="CA19" s="1">
-        <v>-896.619000</v>
+        <v>-896.61900000000003</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>63369.086464</v>
       </c>
       <c r="CD19" s="1">
-        <v>17.602524</v>
+        <v>17.602523999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1821.270000</v>
+        <v>1821.27</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1392.510000</v>
+        <v>-1392.51</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>63195.580437</v>
+        <v>63195.580436999997</v>
       </c>
       <c r="B20" s="1">
-        <v>17.554328</v>
+        <v>17.554328000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>897.683000</v>
+        <v>897.68299999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.555000</v>
+        <v>-202.55500000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>63206.085739</v>
+        <v>63206.085739000002</v>
       </c>
       <c r="G20" s="1">
-        <v>17.557246</v>
+        <v>17.557245999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>915.964000</v>
+        <v>915.96400000000006</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.695000</v>
+        <v>-171.69499999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>63216.281962</v>
+        <v>63216.281962000001</v>
       </c>
       <c r="L20" s="1">
-        <v>17.560078</v>
+        <v>17.560078000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>940.452000</v>
+        <v>940.452</v>
       </c>
       <c r="N20" s="1">
-        <v>-122.103000</v>
+        <v>-122.10299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>63226.528316</v>
+        <v>63226.528316000004</v>
       </c>
       <c r="Q20" s="1">
         <v>17.562925</v>
       </c>
       <c r="R20" s="1">
-        <v>947.464000</v>
+        <v>947.46400000000006</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.332000</v>
+        <v>-105.33199999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>63237.018205</v>
       </c>
       <c r="V20" s="1">
-        <v>17.565838</v>
+        <v>17.565837999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>954.276000</v>
+        <v>954.27599999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.890400</v>
+        <v>-89.8904</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>63247.570096</v>
+        <v>63247.570096000003</v>
       </c>
       <c r="AA20" s="1">
         <v>17.568769</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.677000</v>
+        <v>961.67700000000002</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.754700</v>
+        <v>-77.7547</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>63258.049570</v>
+        <v>63258.049570000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.571680</v>
+        <v>17.571680000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.413000</v>
+        <v>966.41300000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.284100</v>
+        <v>-75.284099999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>63268.634197</v>
+        <v>63268.634196999999</v>
       </c>
       <c r="AK20" s="1">
         <v>17.574621</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.652000</v>
+        <v>973.65200000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.677300</v>
+        <v>-79.677300000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>63279.556102</v>
+        <v>63279.556102000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>17.577654</v>
+        <v>17.577653999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>981.714000</v>
+        <v>981.71400000000006</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.041500</v>
+        <v>-91.041499999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>63290.613451</v>
+        <v>63290.613450999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>17.580726</v>
+        <v>17.580725999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>991.565000</v>
+        <v>991.56500000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.510000</v>
+        <v>-108.51</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>63301.647912</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.583791</v>
+        <v>17.583791000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.860000</v>
+        <v>999.86</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.973000</v>
+        <v>-123.973</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>63312.677451</v>
+        <v>63312.677451000003</v>
       </c>
       <c r="BE20" s="1">
         <v>17.586855</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.116000</v>
+        <v>-195.11600000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>63324.387994</v>
+        <v>63324.387993999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.590108</v>
+        <v>17.590108000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.490000</v>
+        <v>1105.49</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.114000</v>
+        <v>-310.11399999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>63335.538557</v>
       </c>
       <c r="BO20" s="1">
-        <v>17.593205</v>
+        <v>17.593205000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-490.518000</v>
+        <v>-490.51799999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>63346.059694</v>
+        <v>63346.059694000003</v>
       </c>
       <c r="BT20" s="1">
         <v>17.596128</v>
       </c>
       <c r="BU20" s="1">
-        <v>1335.250000</v>
+        <v>1335.25</v>
       </c>
       <c r="BV20" s="1">
-        <v>-687.633000</v>
+        <v>-687.63300000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>63356.912655</v>
       </c>
       <c r="BY20" s="1">
-        <v>17.599142</v>
+        <v>17.599142000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1470.020000</v>
+        <v>1470.02</v>
       </c>
       <c r="CA20" s="1">
-        <v>-896.700000</v>
+        <v>-896.7</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>63369.613710</v>
+        <v>63369.613709999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>17.602670</v>
+        <v>17.60267</v>
       </c>
       <c r="CE20" s="1">
-        <v>1822.380000</v>
+        <v>1822.38</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1392.010000</v>
+        <v>-1392.01</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>63196.261940</v>
+        <v>63196.261939999997</v>
       </c>
       <c r="B21" s="1">
-        <v>17.554517</v>
+        <v>17.554517000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>897.796000</v>
+        <v>897.79600000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.550000</v>
+        <v>-202.55</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>63206.433397</v>
+        <v>63206.433397000001</v>
       </c>
       <c r="G21" s="1">
-        <v>17.557343</v>
+        <v>17.557342999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>916.571000</v>
+        <v>916.57100000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.908000</v>
+        <v>-171.90799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>63216.627208</v>
+        <v>63216.627207999998</v>
       </c>
       <c r="L21" s="1">
         <v>17.560174</v>
       </c>
       <c r="M21" s="1">
-        <v>940.281000</v>
+        <v>940.28099999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-122.011000</v>
+        <v>-122.011</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>63226.876010</v>
+        <v>63226.87601</v>
       </c>
       <c r="Q21" s="1">
-        <v>17.563021</v>
+        <v>17.563020999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>947.489000</v>
+        <v>947.48900000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.396000</v>
+        <v>-105.396</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>63237.679906</v>
+        <v>63237.679905999998</v>
       </c>
       <c r="V21" s="1">
         <v>17.566022</v>
       </c>
       <c r="W21" s="1">
-        <v>954.185000</v>
+        <v>954.18499999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.842100</v>
+        <v>-89.842100000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>63247.959455</v>
+        <v>63247.959454999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.568878</v>
+        <v>17.568878000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.629000</v>
+        <v>961.62900000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.790200</v>
+        <v>-77.790199999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>63258.429047</v>
+        <v>63258.429046999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>17.571786</v>
+        <v>17.571785999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.293000</v>
+        <v>966.29300000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.150900</v>
+        <v>-75.150899999999993</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>63268.984867</v>
+        <v>63268.984866999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>17.574718</v>
+        <v>17.574718000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.627000</v>
+        <v>973.62699999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.693600</v>
+        <v>-79.693600000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>63279.917699</v>
+        <v>63279.917698999998</v>
       </c>
       <c r="AP21" s="1">
         <v>17.577755</v>
       </c>
       <c r="AQ21" s="1">
-        <v>981.696000</v>
+        <v>981.69600000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.016400</v>
+        <v>-91.016400000000004</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>63290.975990</v>
+        <v>63290.975989999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>17.580827</v>
+        <v>17.580826999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>991.585000</v>
+        <v>991.58500000000004</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.484000</v>
+        <v>-108.48399999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>63302.074017</v>
+        <v>63302.074016999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>17.583909</v>
+        <v>17.583908999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.863000</v>
+        <v>999.86300000000006</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.947000</v>
+        <v>-123.947</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>63313.406569</v>
+        <v>63313.406568999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>17.587057</v>
+        <v>17.587057000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.117000</v>
+        <v>-195.11699999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>63324.739189</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17.590205</v>
+        <v>17.590205000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.126000</v>
+        <v>-310.12599999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>63335.962175</v>
+        <v>63335.962175000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.593323</v>
+        <v>17.593323000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1213.730000</v>
+        <v>1213.73</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-490.475000</v>
+        <v>-490.47500000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>63346.488240</v>
+        <v>63346.488239999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>17.596247</v>
+        <v>17.596247000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1335.240000</v>
+        <v>1335.24</v>
       </c>
       <c r="BV21" s="1">
-        <v>-687.603000</v>
+        <v>-687.60299999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>63357.362031</v>
+        <v>63357.362030999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.599267</v>
+        <v>17.599267000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1470.130000</v>
+        <v>1470.13</v>
       </c>
       <c r="CA21" s="1">
-        <v>-896.692000</v>
+        <v>-896.69200000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>63370.133023</v>
+        <v>63370.133023000002</v>
       </c>
       <c r="CD21" s="1">
         <v>17.602815</v>
       </c>
       <c r="CE21" s="1">
-        <v>1821.800000</v>
+        <v>1821.8</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1390.740000</v>
+        <v>-1390.74</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>63196.601700</v>
+        <v>63196.601699999999</v>
       </c>
       <c r="B22" s="1">
-        <v>17.554612</v>
+        <v>17.554611999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>897.768000</v>
+        <v>897.76800000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.471000</v>
+        <v>-202.471</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>63206.784601</v>
+        <v>63206.784600999999</v>
       </c>
       <c r="G22" s="1">
-        <v>17.557440</v>
+        <v>17.55744</v>
       </c>
       <c r="H22" s="1">
-        <v>916.492000</v>
+        <v>916.49199999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.835000</v>
+        <v>-171.83500000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>63217.287388</v>
+        <v>63217.287387999997</v>
       </c>
       <c r="L22" s="1">
-        <v>17.560358</v>
+        <v>17.560358000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>940.512000</v>
+        <v>940.51199999999994</v>
       </c>
       <c r="N22" s="1">
-        <v>-122.051000</v>
+        <v>-122.051</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>63227.535691</v>
+        <v>63227.535690999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>17.563204</v>
+        <v>17.563203999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>947.408000</v>
+        <v>947.40800000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.375000</v>
+        <v>-105.375</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>63238.049916</v>
+        <v>63238.049916000004</v>
       </c>
       <c r="V22" s="1">
         <v>17.566125</v>
       </c>
       <c r="W22" s="1">
-        <v>954.085000</v>
+        <v>954.08500000000004</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.894800</v>
+        <v>-89.894800000000004</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>63248.305701</v>
+        <v>63248.305700999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.568974</v>
+        <v>17.568974000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.596000</v>
+        <v>961.596</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.760300</v>
+        <v>-77.760300000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>63258.773728</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.571882</v>
+        <v>17.571881999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.418000</v>
+        <v>966.41800000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.304400</v>
+        <v>-75.304400000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>63269.334051</v>
+        <v>63269.334050999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.574815</v>
+        <v>17.574815000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.606000</v>
+        <v>973.60599999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.691900</v>
+        <v>-79.691900000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>63280.347251</v>
+        <v>63280.347250999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.577874</v>
+        <v>17.577874000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>981.710000</v>
+        <v>981.71</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.024200</v>
+        <v>-91.024199999999993</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>63291.392630</v>
+        <v>63291.392630000002</v>
       </c>
       <c r="AU22" s="1">
         <v>17.580942</v>
       </c>
       <c r="AV22" s="1">
-        <v>991.578000</v>
+        <v>991.57799999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.488000</v>
+        <v>-108.488</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>63302.367144</v>
+        <v>63302.367144000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.583991</v>
+        <v>17.583991000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.861000</v>
+        <v>999.86099999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.966000</v>
+        <v>-123.96599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>63313.782067</v>
       </c>
       <c r="BE22" s="1">
-        <v>17.587162</v>
+        <v>17.587161999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.600000</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.117000</v>
+        <v>-195.11699999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>63325.112680</v>
+        <v>63325.112679999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17.590309</v>
+        <v>17.590309000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.128000</v>
+        <v>-310.12799999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>63336.359435</v>
+        <v>63336.359434999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>17.593433</v>
+        <v>17.593433000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1213.670000</v>
+        <v>1213.67</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-490.447000</v>
+        <v>-490.447</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>63347.053182</v>
+        <v>63347.053182000003</v>
       </c>
       <c r="BT22" s="1">
         <v>17.596404</v>
       </c>
       <c r="BU22" s="1">
-        <v>1335.260000</v>
+        <v>1335.26</v>
       </c>
       <c r="BV22" s="1">
-        <v>-687.429000</v>
+        <v>-687.42899999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>63357.792061</v>
@@ -5846,407 +6262,407 @@
         <v>17.599387</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1470.090000</v>
+        <v>1470.09</v>
       </c>
       <c r="CA22" s="1">
-        <v>-896.612000</v>
+        <v>-896.61199999999997</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>63370.650403</v>
       </c>
       <c r="CD22" s="1">
-        <v>17.602958</v>
+        <v>17.602958000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1820.730000</v>
+        <v>1820.73</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1391.780000</v>
+        <v>-1391.78</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>63197.283739</v>
+        <v>63197.283738999999</v>
       </c>
       <c r="B23" s="1">
-        <v>17.554801</v>
+        <v>17.554801000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>897.703000</v>
+        <v>897.70299999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.652000</v>
+        <v>-202.65199999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>63207.434326</v>
+        <v>63207.434326000002</v>
       </c>
       <c r="G23" s="1">
-        <v>17.557621</v>
+        <v>17.557621000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>915.696000</v>
+        <v>915.69600000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.502000</v>
+        <v>-171.50200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>63217.662850</v>
+        <v>63217.662850000001</v>
       </c>
       <c r="L23" s="1">
-        <v>17.560462</v>
+        <v>17.560462000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>940.238000</v>
+        <v>940.23800000000006</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.975000</v>
+        <v>-121.97499999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>63227.921613</v>
+        <v>63227.921612999999</v>
       </c>
       <c r="Q23" s="1">
         <v>17.563312</v>
       </c>
       <c r="R23" s="1">
-        <v>947.431000</v>
+        <v>947.43100000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.380000</v>
+        <v>-105.38</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>63238.393116</v>
+        <v>63238.393115999999</v>
       </c>
       <c r="V23" s="1">
-        <v>17.566220</v>
+        <v>17.566220000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>954.286000</v>
+        <v>954.28599999999994</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.903400</v>
+        <v>-89.903400000000005</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>63248.661791</v>
+        <v>63248.661790999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.569073</v>
+        <v>17.569072999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.574000</v>
+        <v>961.57399999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.807200</v>
+        <v>-77.807199999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>63259.124402</v>
+        <v>63259.124402000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>17.571979</v>
+        <v>17.571978999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.346000</v>
+        <v>966.346</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.172600</v>
+        <v>-75.172600000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>63269.768050</v>
+        <v>63269.768049999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>17.574936</v>
+        <v>17.574936000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.625000</v>
+        <v>973.625</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.696500</v>
+        <v>-79.6965</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>63280.637876</v>
+        <v>63280.637876000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>17.577955</v>
+        <v>17.577954999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>981.725000</v>
+        <v>981.72500000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.038500</v>
+        <v>-91.038499999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>63291.708581</v>
+        <v>63291.708580999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>17.581030</v>
+        <v>17.581029999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>991.578000</v>
+        <v>991.57799999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.497000</v>
+        <v>-108.497</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>63302.725718</v>
+        <v>63302.725718000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.584090</v>
+        <v>17.58409</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.846000</v>
+        <v>999.846</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.965000</v>
+        <v>-123.965</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>63314.143625</v>
+        <v>63314.143624999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>17.587262</v>
+        <v>17.587261999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.620000</v>
+        <v>1038.6199999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.094000</v>
+        <v>-195.09399999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>63325.487948</v>
+        <v>63325.487948000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>17.590413</v>
+        <v>17.590413000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.108000</v>
+        <v>-310.108</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>63336.785002</v>
+        <v>63336.785001999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>17.593551</v>
+        <v>17.593551000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1213.700000</v>
+        <v>1213.7</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-490.455000</v>
+        <v>-490.45499999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>63347.329452</v>
+        <v>63347.329451999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.596480</v>
+        <v>17.59648</v>
       </c>
       <c r="BU23" s="1">
-        <v>1335.290000</v>
+        <v>1335.29</v>
       </c>
       <c r="BV23" s="1">
-        <v>-687.319000</v>
+        <v>-687.31899999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>63358.209229</v>
       </c>
       <c r="BY23" s="1">
-        <v>17.599503</v>
+        <v>17.599502999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1470.030000</v>
+        <v>1470.03</v>
       </c>
       <c r="CA23" s="1">
-        <v>-896.726000</v>
+        <v>-896.726</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>63371.170652</v>
+        <v>63371.170652000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>17.603103</v>
+        <v>17.603103000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1820.810000</v>
+        <v>1820.81</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1391.360000</v>
+        <v>-1391.36</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>63197.653715</v>
       </c>
       <c r="B24" s="1">
-        <v>17.554904</v>
+        <v>17.554904000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>897.788000</v>
+        <v>897.78800000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.525000</v>
+        <v>-202.52500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>63207.816741</v>
+        <v>63207.816741000002</v>
       </c>
       <c r="G24" s="1">
         <v>17.557727</v>
       </c>
       <c r="H24" s="1">
-        <v>916.048000</v>
+        <v>916.048</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.254000</v>
+        <v>-171.25399999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>63218.008070</v>
+        <v>63218.008070000003</v>
       </c>
       <c r="L24" s="1">
         <v>17.560558</v>
       </c>
       <c r="M24" s="1">
-        <v>940.387000</v>
+        <v>940.38699999999994</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.919000</v>
+        <v>-121.919</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>63228.269273</v>
+        <v>63228.269272999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>17.563408</v>
+        <v>17.563407999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>947.454000</v>
+        <v>947.45399999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.368000</v>
+        <v>-105.36799999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>63238.742301</v>
+        <v>63238.742300999998</v>
       </c>
       <c r="V24" s="1">
-        <v>17.566317</v>
+        <v>17.566317000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>954.226000</v>
+        <v>954.226</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.929600</v>
+        <v>-89.929599999999994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>63249.087886</v>
+        <v>63249.087886000001</v>
       </c>
       <c r="AA24" s="1">
         <v>17.569191</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.576000</v>
+        <v>961.57600000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.863300</v>
+        <v>-77.863299999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>63259.555951</v>
+        <v>63259.555951000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>17.572099</v>
+        <v>17.572099000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.350000</v>
+        <v>966.35</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.220300</v>
+        <v>-75.220299999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>63270.038865</v>
+        <v>63270.038865000002</v>
       </c>
       <c r="AK24" s="1">
         <v>17.575011</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.608000</v>
+        <v>973.60799999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.693400</v>
+        <v>-79.693399999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>63280.999957</v>
@@ -6255,649 +6671,650 @@
         <v>17.578056</v>
       </c>
       <c r="AQ24" s="1">
-        <v>981.696000</v>
+        <v>981.69600000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.028300</v>
+        <v>-91.028300000000002</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>63292.074630</v>
+        <v>63292.074630000003</v>
       </c>
       <c r="AU24" s="1">
         <v>17.581132</v>
       </c>
       <c r="AV24" s="1">
-        <v>991.566000</v>
+        <v>991.56600000000003</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.500000</v>
+        <v>-108.5</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>63303.082839</v>
+        <v>63303.082839000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>17.584190</v>
+        <v>17.58419</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.835000</v>
+        <v>999.83500000000004</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.960000</v>
+        <v>-123.96</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>63314.875720</v>
+        <v>63314.875719999996</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.587465</v>
+        <v>17.587465000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.620000</v>
+        <v>1038.6199999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.080000</v>
+        <v>-195.08</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>63326.237575</v>
+        <v>63326.237574999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>17.590622</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.101000</v>
+        <v>-310.101</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>63337.176842</v>
+        <v>63337.176842000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>17.593660</v>
+        <v>17.59366</v>
       </c>
       <c r="BP24" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-490.465000</v>
+        <v>-490.46499999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>63347.757997</v>
+        <v>63347.757997000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>17.596599</v>
+        <v>17.596599000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1335.240000</v>
+        <v>1335.24</v>
       </c>
       <c r="BV24" s="1">
-        <v>-687.266000</v>
+        <v>-687.26599999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>63358.631788</v>
+        <v>63358.631787999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.599620</v>
+        <v>17.599620000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1470.010000</v>
+        <v>1470.01</v>
       </c>
       <c r="CA24" s="1">
-        <v>-896.644000</v>
+        <v>-896.64400000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>63372.031707</v>
+        <v>63372.031707000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>17.603342</v>
+        <v>17.603342000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1821.460000</v>
+        <v>1821.46</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1390.970000</v>
+        <v>-1390.97</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>63197.992981</v>
+        <v>63197.992981000003</v>
       </c>
       <c r="B25" s="1">
-        <v>17.554998</v>
+        <v>17.554998000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>897.850000</v>
+        <v>897.85</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.652000</v>
+        <v>-202.65199999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>63208.162484</v>
       </c>
       <c r="G25" s="1">
-        <v>17.557823</v>
+        <v>17.557822999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>916.664000</v>
+        <v>916.66399999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.963000</v>
+        <v>-171.96299999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>63218.356230</v>
+        <v>63218.356229999998</v>
       </c>
       <c r="L25" s="1">
-        <v>17.560655</v>
+        <v>17.560655000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>940.290000</v>
+        <v>940.29</v>
       </c>
       <c r="N25" s="1">
-        <v>-122.004000</v>
+        <v>-122.004</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>63228.621929</v>
+        <v>63228.621929000001</v>
       </c>
       <c r="Q25" s="1">
         <v>17.563506</v>
       </c>
       <c r="R25" s="1">
-        <v>947.470000</v>
+        <v>947.47</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.336000</v>
+        <v>-105.336</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>63239.164890</v>
+        <v>63239.16489</v>
       </c>
       <c r="V25" s="1">
-        <v>17.566435</v>
+        <v>17.566434999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>954.350000</v>
+        <v>954.35</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.897600</v>
+        <v>-89.897599999999997</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>63249.367598</v>
+        <v>63249.367597999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>17.569269</v>
+        <v>17.569268999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.648000</v>
+        <v>961.64800000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.707200</v>
+        <v>-77.7072</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>63259.826239</v>
+        <v>63259.826239000002</v>
       </c>
       <c r="AF25" s="1">
         <v>17.572174</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.302000</v>
+        <v>966.30200000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.174600</v>
+        <v>-75.174599999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>63270.386561</v>
+        <v>63270.386560999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.575107</v>
+        <v>17.575106999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.621000</v>
+        <v>973.62099999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.691000</v>
+        <v>-79.691000000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>63281.359060</v>
+        <v>63281.359060000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>17.578155</v>
+        <v>17.578154999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>981.704000</v>
+        <v>981.70399999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.041900</v>
+        <v>-91.041899999999998</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>63292.439189</v>
+        <v>63292.439188999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>17.581233</v>
+        <v>17.581233000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>991.574000</v>
+        <v>991.57399999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.485000</v>
+        <v>-108.485</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>63303.805013</v>
+        <v>63303.805012999997</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.584390</v>
+        <v>17.584389999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.848000</v>
+        <v>999.84799999999996</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.959000</v>
+        <v>-123.959</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>63315.252218</v>
+        <v>63315.252218000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.587570</v>
+        <v>17.587569999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.620000</v>
+        <v>1038.6199999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.109000</v>
+        <v>-195.10900000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>63326.613047</v>
+        <v>63326.613046999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>17.590726</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.480000</v>
+        <v>1105.48</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.103000</v>
+        <v>-310.10300000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>63337.596457</v>
       </c>
       <c r="BO25" s="1">
-        <v>17.593777</v>
+        <v>17.593776999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1213.730000</v>
+        <v>1213.73</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-490.457000</v>
+        <v>-490.45699999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>63348.483147</v>
+        <v>63348.483146999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>17.596801</v>
+        <v>17.596800999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1335.110000</v>
+        <v>1335.11</v>
       </c>
       <c r="BV25" s="1">
-        <v>-687.227000</v>
+        <v>-687.22699999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>63359.399099</v>
+        <v>63359.399099000002</v>
       </c>
       <c r="BY25" s="1">
         <v>17.599833</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1470.060000</v>
+        <v>1470.06</v>
       </c>
       <c r="CA25" s="1">
-        <v>-896.662000</v>
+        <v>-896.66200000000003</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>63372.252459</v>
+        <v>63372.252459000003</v>
       </c>
       <c r="CD25" s="1">
         <v>17.603403</v>
       </c>
       <c r="CE25" s="1">
-        <v>1820.970000</v>
+        <v>1820.97</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1391.880000</v>
+        <v>-1391.88</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>63198.340705</v>
+        <v>63198.340705000002</v>
       </c>
       <c r="B26" s="1">
-        <v>17.555095</v>
+        <v>17.555095000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>897.645000</v>
+        <v>897.64499999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.626000</v>
+        <v>-202.626</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>63208.507668</v>
+        <v>63208.507667999998</v>
       </c>
       <c r="G26" s="1">
-        <v>17.557919</v>
+        <v>17.557918999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>915.978000</v>
+        <v>915.97799999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.645000</v>
+        <v>-171.64500000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>63218.773365</v>
+        <v>63218.773365000001</v>
       </c>
       <c r="L26" s="1">
-        <v>17.560770</v>
+        <v>17.560770000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>940.387000</v>
+        <v>940.38699999999994</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.997000</v>
+        <v>-121.997</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>63229.055928</v>
+        <v>63229.055928000002</v>
       </c>
       <c r="Q26" s="1">
         <v>17.563627</v>
       </c>
       <c r="R26" s="1">
-        <v>947.478000</v>
+        <v>947.47799999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.348000</v>
+        <v>-105.348</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>63239.444639</v>
+        <v>63239.444639000001</v>
       </c>
       <c r="V26" s="1">
-        <v>17.566512</v>
+        <v>17.566511999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>954.253000</v>
+        <v>954.25300000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.971100</v>
+        <v>-89.971100000000007</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>63249.717808</v>
+        <v>63249.717808000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>17.569366</v>
+        <v>17.569365999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.681000</v>
+        <v>961.68100000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.755300</v>
+        <v>-77.755300000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>63260.165043</v>
+        <v>63260.165043000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.572268</v>
+        <v>17.572268000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.410000</v>
+        <v>966.41</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.328000</v>
+        <v>-75.328000000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>63270.733762</v>
+        <v>63270.733762000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>17.575204</v>
+        <v>17.575203999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.645000</v>
+        <v>973.64499999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.720600</v>
+        <v>-79.720600000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>63282.080738</v>
+        <v>63282.080737999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.578356</v>
+        <v>17.578355999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>981.713000</v>
+        <v>981.71299999999997</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.041700</v>
+        <v>-91.041700000000006</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>63293.164871</v>
+        <v>63293.164871000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.581435</v>
+        <v>17.581434999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>991.568000</v>
+        <v>991.56799999999998</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.505000</v>
+        <v>-108.505</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>63304.180498</v>
+        <v>63304.180498000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>17.584495</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.855000</v>
+        <v>999.85500000000002</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.959000</v>
+        <v>-123.959</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>63315.632616</v>
+        <v>63315.632616000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.587676</v>
+        <v>17.587675999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.620000</v>
+        <v>1038.6199999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.107000</v>
+        <v>-195.107</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>63326.989511</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.590830</v>
+        <v>17.59083</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.131000</v>
+        <v>-310.13099999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>63338.304743</v>
+        <v>63338.304743000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.593974</v>
+        <v>17.593973999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-490.482000</v>
+        <v>-490.48200000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>63348.603178</v>
+        <v>63348.603177999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>17.596834</v>
+        <v>17.596834000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1334.960000</v>
+        <v>1334.96</v>
       </c>
       <c r="BV26" s="1">
-        <v>-687.110000</v>
+        <v>-687.11</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>63359.512188</v>
+        <v>63359.512188000001</v>
       </c>
       <c r="BY26" s="1">
         <v>17.599864</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1470.060000</v>
+        <v>1470.06</v>
       </c>
       <c r="CA26" s="1">
-        <v>-896.646000</v>
+        <v>-896.64599999999996</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>63372.769786</v>
+        <v>63372.769785999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.603547</v>
+        <v>17.603546999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1820.660000</v>
+        <v>1820.66</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1391.280000</v>
+        <v>-1391.28</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>